--- a/QA Task 1/2. Smoke tests.xlsx
+++ b/QA Task 1/2. Smoke tests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>Steps</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Test data</t>
   </si>
   <si>
-    <t>Register new account with valid data</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on button MY ACCOUNT </t>
   </si>
   <si>
@@ -109,25 +106,7 @@
     <t>xxxxxxxxxxxxxxxx</t>
   </si>
   <si>
-    <t>Enter valid email</t>
-  </si>
-  <si>
     <t>Booking Hotel as Guest</t>
-  </si>
-  <si>
-    <t>Enter valid first name</t>
-  </si>
-  <si>
-    <t>Enter valid last name</t>
-  </si>
-  <si>
-    <t>Enter valid confrim email</t>
-  </si>
-  <si>
-    <t>Enter valid contact number</t>
-  </si>
-  <si>
-    <t>Enter valid address</t>
   </si>
   <si>
     <t>Step 12</t>
@@ -247,12 +226,6 @@
     <t>"Login" page is open</t>
   </si>
   <si>
-    <t>Enter the valid email</t>
-  </si>
-  <si>
-    <t>Enter the vaild password</t>
-  </si>
-  <si>
     <t xml:space="preserve">Password entered </t>
   </si>
   <si>
@@ -324,6 +297,27 @@
   </si>
   <si>
     <t>Page with booking details is open</t>
+  </si>
+  <si>
+    <t>Enter correct first name</t>
+  </si>
+  <si>
+    <t>Enter correct last name</t>
+  </si>
+  <si>
+    <t>Enter correct email</t>
+  </si>
+  <si>
+    <t>Enter correct confrim email</t>
+  </si>
+  <si>
+    <t>Enter correct contact number</t>
+  </si>
+  <si>
+    <t>Enter correct address</t>
+  </si>
+  <si>
+    <t>Register new account</t>
   </si>
 </sst>
 </file>
@@ -892,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -917,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>0</v>
@@ -943,20 +937,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1">
@@ -968,10 +962,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1">
@@ -983,44 +977,44 @@
         <v>5</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1">
@@ -1034,10 +1028,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1">
@@ -1051,61 +1045,61 @@
         <v>10</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="8.25" customHeight="1">
@@ -1122,20 +1116,20 @@
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="30.75" customHeight="1">
@@ -1147,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1" ht="30.75" customHeight="1">
@@ -1162,44 +1156,44 @@
         <v>5</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1" ht="30.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -1214,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" ht="7.5" customHeight="1">
@@ -1231,37 +1225,37 @@
         <v>3</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" ht="15.75">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" ht="15.75">
@@ -1275,10 +1269,10 @@
         <v>5</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" ht="15.75">
@@ -1292,10 +1286,10 @@
         <v>6</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" ht="15.75">
@@ -1309,10 +1303,10 @@
         <v>7</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" ht="15.75">
@@ -1326,10 +1320,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" ht="31.5">
@@ -1341,10 +1335,10 @@
         <v>10</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1" ht="15.75">
@@ -1358,10 +1352,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" ht="15.75">
@@ -1370,13 +1364,13 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" ht="15.75">
@@ -1385,81 +1379,81 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1" ht="15.75">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" ht="15.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" ht="15.75">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="8" customFormat="1" ht="15.75">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="8" customFormat="1" ht="15.75">
@@ -1470,13 +1464,13 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="8" customFormat="1" ht="15.75">
@@ -1487,30 +1481,30 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="8" customFormat="1" ht="15.75">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="8" customFormat="1" ht="15.75">
@@ -1519,13 +1513,13 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:8">
